--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825247.947332207</v>
+        <v>832867.6033521893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3310567.966189069</v>
+        <v>3310567.966189067</v>
       </c>
     </row>
     <row r="8">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.35489646302236</v>
+        <v>41.73747419976723</v>
       </c>
       <c r="J13" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.138318604862867</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>47.87579280463007</v>
       </c>
       <c r="G14" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="H14" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="I14" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.35489646302236</v>
+        <v>41.73747419976723</v>
       </c>
       <c r="J16" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6.138318604862867</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>54.03561664676239</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1932,46 +1932,46 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>54.03561664676239</v>
+      </c>
+      <c r="I18" t="n">
         <v>61.34833860894916</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>61.34833860894916</v>
       </c>
-      <c r="H18" t="n">
+      <c r="S18" t="n">
         <v>61.34833860894916</v>
-      </c>
-      <c r="I18" t="n">
-        <v>54.03561664676239</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.6040116612953</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.6040116612953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="E20" t="n">
-        <v>324.9166963018987</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>282.1349189752329</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>324.9166963018987</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="I20" t="n">
-        <v>198.5427590062217</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>155.7609816795557</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>83.69461296709892</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>107.4172947384495</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>140.0271834522746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48.76761984679806</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.889944639698006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>324.9166963018987</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>324.9166963018987</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>324.9166963018987</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S23" t="n">
         <v>201.9666693467966</v>
       </c>
       <c r="T23" t="n">
-        <v>84.2199567559158</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>56.97012383402338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.7859719131782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>48.74390056939966</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>83.69461296709892</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>48.76761984679786</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.889944639698121</v>
       </c>
     </row>
     <row r="26">
@@ -2555,70 +2555,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="D26" t="n">
-        <v>34.86573554349464</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>324.9166963018986</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>324.9166963018986</v>
       </c>
-      <c r="H26" t="n">
-        <v>324.9166963018986</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>251.3208905592175</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>286.1866261027121</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>54.25338389652419</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S27" t="n">
-        <v>168.6069858541462</v>
+        <v>109.7931479097045</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.76761984679787</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>221.5969220538193</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>7.00267797491588</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>324.9166963018986</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>198.5427590062217</v>
+        <v>138.041547044759</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>87.64386709649041</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H30" t="n">
         <v>110.6359731810488</v>
       </c>
       <c r="I30" t="n">
-        <v>83.69461296709891</v>
+        <v>83.69461296709892</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>199.4971928637787</v>
       </c>
       <c r="U30" t="n">
-        <v>203.117551314675</v>
+        <v>13.98076473163938</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>61.35277893010747</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>228.5996000287352</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,23 +3026,23 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>324.9166963018986</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S32" t="n">
-        <v>201.9666693467966</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>187.3957682571799</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>324.9166963018986</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>155.7609816795557</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>8.988571980530416</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>111.0993026638849</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.889944639698006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.17855200580412</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.5617998388764</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>238.3108332980821</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>270.5617998388764</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.5617998388764</v>
+        <v>238.3108332980823</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>131.1403830985773</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>205.4952963531039</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>171.050450629817</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.54914939891821</v>
+        <v>221.5969220538193</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>7.002677974915887</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>270.5617998388764</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>270.5617998388764</v>
       </c>
       <c r="F38" t="n">
-        <v>270.5617998388764</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>198.5427590062217</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>39.76807429186048</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>238.3108332980821</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>270.5617998388764</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>27.62796325437556</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>73.3683826941683</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.930486501578</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8521351445063</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>60.74746488422889</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>57.5491493989181</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>232.15100945595</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>18.85923439877233</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>198.5427590062217</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>263.5683576929496</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>263.5683576929496</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>263.5683576929496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.45830164333405</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>219.4494055752455</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>10.01494667664036</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.002677974915869</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>221.5969220538193</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="C11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="D11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="E11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="F11" t="n">
-        <v>4.348391717041789</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="G11" t="n">
-        <v>4.348391717041789</v>
+        <v>107.61171420962</v>
       </c>
       <c r="H11" t="n">
-        <v>4.348391717041789</v>
+        <v>59.25232753827648</v>
       </c>
       <c r="I11" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="J11" t="n">
         <v>18.52680340900599</v>
       </c>
       <c r="K11" t="n">
-        <v>72.33815090739813</v>
+        <v>72.3381509073981</v>
       </c>
       <c r="L11" t="n">
-        <v>126.1494984057903</v>
+        <v>72.3381509073981</v>
       </c>
       <c r="M11" t="n">
-        <v>179.9608459041824</v>
+        <v>126.1494984057902</v>
       </c>
       <c r="N11" t="n">
-        <v>194.2189465283914</v>
+        <v>179.9608459041823</v>
       </c>
       <c r="O11" t="n">
-        <v>194.2189465283914</v>
+        <v>194.2189465283913</v>
       </c>
       <c r="P11" t="n">
-        <v>194.2189465283914</v>
+        <v>194.2189465283913</v>
       </c>
       <c r="Q11" t="n">
         <v>217.4195858520894</v>
@@ -5066,25 +5066,25 @@
         <v>217.4195858520894</v>
       </c>
       <c r="S11" t="n">
-        <v>162.5156500308547</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T11" t="n">
-        <v>107.61171420962</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U11" t="n">
-        <v>52.7077783883853</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.61171420962</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="C12" t="n">
-        <v>52.7077783883853</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="D12" t="n">
-        <v>52.7077783883853</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="E12" t="n">
-        <v>52.7077783883853</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="F12" t="n">
-        <v>52.7077783883853</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="G12" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="H12" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="I12" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="J12" t="n">
         <v>19.09957690592855</v>
@@ -5124,46 +5124,46 @@
         <v>19.09957690592855</v>
       </c>
       <c r="L12" t="n">
-        <v>55.98554335691302</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="M12" t="n">
-        <v>109.7968908553052</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="N12" t="n">
-        <v>163.6082383536973</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="O12" t="n">
-        <v>163.6082383536973</v>
+        <v>126.7222719027128</v>
       </c>
       <c r="P12" t="n">
-        <v>163.6082383536973</v>
+        <v>180.5336194011049</v>
       </c>
       <c r="Q12" t="n">
         <v>217.4195858520894</v>
       </c>
       <c r="R12" t="n">
-        <v>217.4195858520894</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="S12" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="T12" t="n">
-        <v>217.4195858520894</v>
+        <v>52.70777838838531</v>
       </c>
       <c r="U12" t="n">
-        <v>217.4195858520894</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="V12" t="n">
-        <v>217.4195858520894</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="W12" t="n">
-        <v>217.4195858520894</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="X12" t="n">
-        <v>217.4195858520894</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="Y12" t="n">
-        <v>162.5156500308547</v>
+        <v>4.348391717041787</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="C13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="D13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="E13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="F13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="G13" t="n">
-        <v>162.5156500308547</v>
+        <v>107.61171420962</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1562633595112</v>
+        <v>107.61171420962</v>
       </c>
       <c r="I13" t="n">
-        <v>59.25232753827649</v>
+        <v>65.45264936137028</v>
       </c>
       <c r="J13" t="n">
-        <v>4.348391717041789</v>
+        <v>10.54871354013559</v>
       </c>
       <c r="K13" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041787</v>
       </c>
       <c r="L13" t="n">
-        <v>52.09844119955878</v>
+        <v>52.09844119955879</v>
       </c>
       <c r="M13" t="n">
         <v>105.9097886979509</v>
       </c>
       <c r="N13" t="n">
-        <v>159.7211361963431</v>
+        <v>159.721136196343</v>
       </c>
       <c r="O13" t="n">
-        <v>203.4891613780354</v>
+        <v>203.4891613780353</v>
       </c>
       <c r="P13" t="n">
         <v>217.4195858520894</v>
       </c>
       <c r="Q13" t="n">
-        <v>217.4195858520894</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="R13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="S13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="U13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="V13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="W13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="X13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>114.1562633595112</v>
       </c>
       <c r="H14" t="n">
-        <v>59.25232753827649</v>
+        <v>59.25232753827648</v>
       </c>
       <c r="I14" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J14" t="n">
         <v>18.52680340900599</v>
       </c>
       <c r="K14" t="n">
-        <v>72.33815090739813</v>
+        <v>72.33815090739812</v>
       </c>
       <c r="L14" t="n">
-        <v>72.33815090739813</v>
+        <v>126.1494984057902</v>
       </c>
       <c r="M14" t="n">
-        <v>86.59625153160712</v>
+        <v>179.9608459041823</v>
       </c>
       <c r="N14" t="n">
-        <v>86.59625153160712</v>
+        <v>194.2189465283914</v>
       </c>
       <c r="O14" t="n">
-        <v>140.4075990299993</v>
+        <v>194.2189465283914</v>
       </c>
       <c r="P14" t="n">
         <v>194.2189465283914</v>
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="C15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="D15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="E15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="F15" t="n">
-        <v>4.348391717041789</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="G15" t="n">
-        <v>4.348391717041789</v>
+        <v>107.61171420962</v>
       </c>
       <c r="H15" t="n">
-        <v>4.348391717041789</v>
+        <v>52.70777838838532</v>
       </c>
       <c r="I15" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J15" t="n">
         <v>19.09957690592855</v>
       </c>
       <c r="K15" t="n">
-        <v>72.91092440432068</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="L15" t="n">
-        <v>126.7222719027128</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6082383536973</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="N15" t="n">
-        <v>163.6082383536973</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="O15" t="n">
-        <v>163.6082383536973</v>
+        <v>109.7968908553052</v>
       </c>
       <c r="P15" t="n">
         <v>163.6082383536973</v>
@@ -5379,28 +5379,28 @@
         <v>217.4195858520894</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5156500308547</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S15" t="n">
-        <v>107.61171420962</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T15" t="n">
-        <v>52.7077783883853</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.348391717041789</v>
+        <v>217.4195858520894</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="C16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="D16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="E16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="F16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="G16" t="n">
-        <v>162.5156500308547</v>
+        <v>107.61171420962</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1562633595112</v>
+        <v>107.61171420962</v>
       </c>
       <c r="I16" t="n">
-        <v>59.25232753827649</v>
+        <v>65.45264936137029</v>
       </c>
       <c r="J16" t="n">
-        <v>4.348391717041789</v>
+        <v>10.54871354013559</v>
       </c>
       <c r="K16" t="n">
-        <v>4.348391717041789</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="L16" t="n">
         <v>52.09844119955879</v>
@@ -5455,31 +5455,31 @@
         <v>217.4195858520894</v>
       </c>
       <c r="Q16" t="n">
-        <v>217.4195858520894</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="R16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="U16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="V16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="W16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="X16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.4195858520894</v>
+        <v>107.61171420962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="C17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="D17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="E17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="F17" t="n">
-        <v>183.4253356388783</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="G17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="H17" t="n">
         <v>59.48929804504159</v>
@@ -5522,43 +5522,43 @@
         <v>140.5559892263995</v>
       </c>
       <c r="M17" t="n">
-        <v>184.658499212937</v>
+        <v>201.2908444492591</v>
       </c>
       <c r="N17" t="n">
-        <v>184.658499212937</v>
+        <v>222.1927151120987</v>
       </c>
       <c r="O17" t="n">
-        <v>184.658499212937</v>
+        <v>222.1927151120987</v>
       </c>
       <c r="P17" t="n">
-        <v>245.3933544357967</v>
+        <v>222.1927151120987</v>
       </c>
       <c r="Q17" t="n">
         <v>245.3933544357967</v>
       </c>
       <c r="R17" t="n">
-        <v>245.3933544357967</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="S17" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="T17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="U17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="V17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="W17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="X17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.3933544357967</v>
+        <v>59.48929804504159</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="C18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="D18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="E18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="F18" t="n">
-        <v>183.4253356388783</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="G18" t="n">
         <v>121.4573168419599</v>
       </c>
       <c r="H18" t="n">
-        <v>59.48929804504159</v>
+        <v>66.87588588563429</v>
       </c>
       <c r="I18" t="n">
         <v>4.907867088715933</v>
@@ -5595,49 +5595,49 @@
         <v>19.65905227760269</v>
       </c>
       <c r="K18" t="n">
-        <v>19.65905227760269</v>
+        <v>63.18878876721765</v>
       </c>
       <c r="L18" t="n">
-        <v>80.39390750046236</v>
+        <v>63.18878876721765</v>
       </c>
       <c r="M18" t="n">
-        <v>141.128762723322</v>
+        <v>63.18878876721765</v>
       </c>
       <c r="N18" t="n">
+        <v>123.9236439900773</v>
+      </c>
+      <c r="O18" t="n">
+        <v>123.9236439900773</v>
+      </c>
+      <c r="P18" t="n">
         <v>184.658499212937</v>
-      </c>
-      <c r="O18" t="n">
-        <v>184.658499212937</v>
-      </c>
-      <c r="P18" t="n">
-        <v>245.3933544357967</v>
       </c>
       <c r="Q18" t="n">
         <v>245.3933544357967</v>
       </c>
       <c r="R18" t="n">
-        <v>245.3933544357967</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="S18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="T18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="U18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="V18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="W18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="X18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
       <c r="Y18" t="n">
-        <v>245.3933544357967</v>
+        <v>121.4573168419599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="C19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="D19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="E19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="F19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="G19" t="n">
-        <v>4.907867088715933</v>
+        <v>45.92202028194351</v>
       </c>
       <c r="H19" t="n">
-        <v>4.907867088715933</v>
+        <v>45.92202028194351</v>
       </c>
       <c r="I19" t="n">
-        <v>4.907867088715933</v>
+        <v>45.92202028194351</v>
       </c>
       <c r="J19" t="n">
         <v>4.907867088715933</v>
@@ -5695,16 +5695,16 @@
         <v>231.8260766726986</v>
       </c>
       <c r="R19" t="n">
-        <v>231.8260766726986</v>
+        <v>169.8580578757802</v>
       </c>
       <c r="S19" t="n">
-        <v>231.8260766726986</v>
+        <v>169.8580578757802</v>
       </c>
       <c r="T19" t="n">
-        <v>169.8580578757802</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="U19" t="n">
-        <v>169.8580578757802</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="V19" t="n">
         <v>107.8900390788619</v>
@@ -5713,10 +5713,10 @@
         <v>107.8900390788619</v>
       </c>
       <c r="X19" t="n">
-        <v>45.92202028194351</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.907867088715933</v>
+        <v>107.8900390788619</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1167.923710032689</v>
+        <v>1010.589385103845</v>
       </c>
       <c r="C20" t="n">
-        <v>1167.923710032689</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="D20" t="n">
-        <v>1167.923710032689</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="E20" t="n">
-        <v>839.7250268994583</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="F20" t="n">
-        <v>554.7402602578088</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="G20" t="n">
-        <v>226.5415771245778</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="H20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I20" t="n">
-        <v>25.9933357041519</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J20" t="n">
         <v>40.17174739611609</v>
@@ -5756,7 +5756,7 @@
         <v>182.1663153959772</v>
       </c>
       <c r="L20" t="n">
-        <v>410.5997605606221</v>
+        <v>410.5997605606222</v>
       </c>
       <c r="M20" t="n">
         <v>681.3825281920247</v>
@@ -5795,7 +5795,7 @@
         <v>1167.923710032689</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.923710032689</v>
+        <v>1010.589385103845</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>990.0098487407848</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="C21" t="n">
-        <v>815.5568194596578</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="D21" t="n">
-        <v>666.6224097984066</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E21" t="n">
-        <v>507.384954792951</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F21" t="n">
-        <v>360.850396819836</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G21" t="n">
-        <v>222.2868570659173</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5333488022316</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I21" t="n">
-        <v>25.9933357041519</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J21" t="n">
         <v>40.74452089303865</v>
@@ -5835,46 +5835,46 @@
         <v>192.5774890298645</v>
       </c>
       <c r="L21" t="n">
-        <v>458.140048328703</v>
+        <v>192.5774890298645</v>
       </c>
       <c r="M21" t="n">
-        <v>779.8075776675827</v>
+        <v>476.284364904653</v>
       </c>
       <c r="N21" t="n">
-        <v>779.8075776675827</v>
+        <v>797.9518942435327</v>
       </c>
       <c r="O21" t="n">
-        <v>995.3912882972038</v>
+        <v>1085.714773032954</v>
       </c>
       <c r="P21" t="n">
-        <v>1209.343300471844</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q21" t="n">
         <v>1299.666785207595</v>
       </c>
       <c r="R21" t="n">
-        <v>1299.666785207595</v>
+        <v>1208.883641076363</v>
       </c>
       <c r="S21" t="n">
-        <v>1299.666785207595</v>
+        <v>1100.381323158737</v>
       </c>
       <c r="T21" t="n">
-        <v>1299.666785207595</v>
+        <v>1100.381323158737</v>
       </c>
       <c r="U21" t="n">
-        <v>1299.666785207595</v>
+        <v>872.1687105308804</v>
       </c>
       <c r="V21" t="n">
-        <v>1299.666785207595</v>
+        <v>637.0166022991376</v>
       </c>
       <c r="W21" t="n">
-        <v>1299.666785207595</v>
+        <v>382.779245570936</v>
       </c>
       <c r="X21" t="n">
-        <v>1299.666785207595</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="Y21" t="n">
-        <v>1158.225185760853</v>
+        <v>174.9277453654032</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1118.018320377355</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="C22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="D22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="E22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="F22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="G22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="H22" t="n">
-        <v>1068.758098309882</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="I22" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J22" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="K22" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="L22" t="n">
-        <v>1116.508147792399</v>
+        <v>73.74338518666887</v>
       </c>
       <c r="M22" t="n">
-        <v>1177.243003015259</v>
+        <v>134.4782404095286</v>
       </c>
       <c r="N22" t="n">
-        <v>1241.968335551848</v>
+        <v>199.2035729461179</v>
       </c>
       <c r="O22" t="n">
-        <v>1285.736360733541</v>
+        <v>242.9715981278102</v>
       </c>
       <c r="P22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="Q22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="R22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="T22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="U22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="V22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="W22" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="X22" t="n">
-        <v>1299.666785207595</v>
+        <v>28.91247170384685</v>
       </c>
       <c r="Y22" t="n">
-        <v>1299.666785207595</v>
+        <v>28.91247170384685</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>682.3907019706139</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="C23" t="n">
-        <v>682.3907019706139</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="D23" t="n">
-        <v>354.1920188373829</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E23" t="n">
-        <v>354.1920188373829</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F23" t="n">
-        <v>354.1920188373829</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G23" t="n">
-        <v>354.1920188373829</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H23" t="n">
-        <v>25.9933357041519</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I23" t="n">
-        <v>25.9933357041519</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J23" t="n">
         <v>40.17174739611619</v>
       </c>
       <c r="K23" t="n">
-        <v>182.1663153959772</v>
+        <v>182.1663153959773</v>
       </c>
       <c r="L23" t="n">
-        <v>410.5997605606222</v>
+        <v>410.5997605606224</v>
       </c>
       <c r="M23" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920248</v>
       </c>
       <c r="N23" t="n">
-        <v>941.9148465525581</v>
+        <v>941.9148465525578</v>
       </c>
       <c r="O23" t="n">
         <v>1142.740489123005</v>
@@ -6011,28 +6011,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R23" t="n">
-        <v>1299.666785207595</v>
+        <v>1167.923710032689</v>
       </c>
       <c r="S23" t="n">
-        <v>1095.660048493659</v>
+        <v>963.9169733187531</v>
       </c>
       <c r="T23" t="n">
-        <v>1010.589385103845</v>
+        <v>739.9362816009406</v>
       </c>
       <c r="U23" t="n">
-        <v>1010.589385103845</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="V23" t="n">
-        <v>1010.589385103845</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="W23" t="n">
-        <v>1010.589385103845</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="X23" t="n">
-        <v>1010.589385103845</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="Y23" t="n">
-        <v>1010.589385103845</v>
+        <v>354.1920188373829</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>655.1527876251007</v>
+        <v>467.9414766703522</v>
       </c>
       <c r="C24" t="n">
-        <v>480.6997583439737</v>
+        <v>467.9414766703522</v>
       </c>
       <c r="D24" t="n">
-        <v>331.7653486827224</v>
+        <v>319.0070670091009</v>
       </c>
       <c r="E24" t="n">
-        <v>172.5278936772669</v>
+        <v>159.7696120036454</v>
       </c>
       <c r="F24" t="n">
-        <v>25.9933357041519</v>
+        <v>159.7696120036454</v>
       </c>
       <c r="G24" t="n">
-        <v>25.9933357041519</v>
+        <v>159.7696120036454</v>
       </c>
       <c r="H24" t="n">
-        <v>25.9933357041519</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="I24" t="n">
-        <v>25.9933357041519</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J24" t="n">
         <v>40.74452089303865</v>
@@ -6072,46 +6072,46 @@
         <v>192.5774890298645</v>
       </c>
       <c r="L24" t="n">
-        <v>192.5774890298645</v>
+        <v>278.2453630046634</v>
       </c>
       <c r="M24" t="n">
-        <v>514.2450183687442</v>
+        <v>599.912892343543</v>
       </c>
       <c r="N24" t="n">
-        <v>797.9518942435329</v>
+        <v>921.5804216824226</v>
       </c>
       <c r="O24" t="n">
-        <v>1085.714773032954</v>
+        <v>1209.343300471844</v>
       </c>
       <c r="P24" t="n">
-        <v>1299.666785207595</v>
+        <v>1209.343300471844</v>
       </c>
       <c r="Q24" t="n">
         <v>1299.666785207595</v>
       </c>
       <c r="R24" t="n">
-        <v>1208.883641076363</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S24" t="n">
-        <v>1038.573554355003</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T24" t="n">
-        <v>1038.573554355003</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="U24" t="n">
-        <v>1038.573554355003</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="V24" t="n">
-        <v>803.4214461232605</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="W24" t="n">
-        <v>803.4214461232605</v>
+        <v>843.9171124553741</v>
       </c>
       <c r="X24" t="n">
-        <v>803.4214461232605</v>
+        <v>843.9171124553741</v>
       </c>
       <c r="Y24" t="n">
-        <v>803.4214461232605</v>
+        <v>636.1568136904202</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="C25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="D25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="E25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="F25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="G25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="H25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="I25" t="n">
-        <v>75.25355777162449</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="J25" t="n">
-        <v>25.9933357041519</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="K25" t="n">
-        <v>25.9933357041519</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="L25" t="n">
-        <v>73.74338518666889</v>
+        <v>1116.508147792399</v>
       </c>
       <c r="M25" t="n">
-        <v>134.4782404095286</v>
+        <v>1177.243003015259</v>
       </c>
       <c r="N25" t="n">
-        <v>199.2035729461179</v>
+        <v>1241.968335551848</v>
       </c>
       <c r="O25" t="n">
-        <v>242.9715981278102</v>
+        <v>1285.736360733541</v>
       </c>
       <c r="P25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="R25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="V25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="W25" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="X25" t="n">
-        <v>256.9020226018642</v>
+        <v>1071.677234309577</v>
       </c>
       <c r="Y25" t="n">
-        <v>256.9020226018642</v>
+        <v>1068.758098309882</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1045.807299794244</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="C26" t="n">
-        <v>1045.807299794244</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="D26" t="n">
-        <v>1010.589385103845</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="E26" t="n">
-        <v>682.3907019706139</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="F26" t="n">
-        <v>682.3907019706139</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G26" t="n">
-        <v>354.1920188373829</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H26" t="n">
         <v>25.99333570415189</v>
@@ -6224,7 +6224,7 @@
         <v>25.99333570415189</v>
       </c>
       <c r="J26" t="n">
-        <v>40.1717473961161</v>
+        <v>40.17174739611607</v>
       </c>
       <c r="K26" t="n">
         <v>182.1663153959772</v>
@@ -6233,10 +6233,10 @@
         <v>410.5997605606223</v>
       </c>
       <c r="M26" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920248</v>
       </c>
       <c r="N26" t="n">
-        <v>941.9148465525579</v>
+        <v>941.9148465525578</v>
       </c>
       <c r="O26" t="n">
         <v>1142.740489123005</v>
@@ -6257,19 +6257,19 @@
         <v>1299.666785207595</v>
       </c>
       <c r="U26" t="n">
-        <v>1045.807299794244</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="V26" t="n">
-        <v>1045.807299794244</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="W26" t="n">
-        <v>1045.807299794244</v>
+        <v>971.4681020743635</v>
       </c>
       <c r="X26" t="n">
-        <v>1045.807299794244</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="Y26" t="n">
-        <v>1045.807299794244</v>
+        <v>682.3907019706139</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>870.3582173349348</v>
+        <v>172.5278936772669</v>
       </c>
       <c r="C27" t="n">
-        <v>815.5568194596578</v>
+        <v>172.5278936772669</v>
       </c>
       <c r="D27" t="n">
-        <v>666.6224097984066</v>
+        <v>172.5278936772669</v>
       </c>
       <c r="E27" t="n">
-        <v>507.384954792951</v>
+        <v>172.5278936772669</v>
       </c>
       <c r="F27" t="n">
-        <v>360.850396819836</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G27" t="n">
-        <v>222.2868570659173</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H27" t="n">
-        <v>110.5333488022316</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I27" t="n">
         <v>25.99333570415189</v>
@@ -6309,16 +6309,16 @@
         <v>192.5774890298645</v>
       </c>
       <c r="L27" t="n">
-        <v>458.140048328703</v>
+        <v>192.5774890298645</v>
       </c>
       <c r="M27" t="n">
-        <v>779.8075776675826</v>
+        <v>476.284364904653</v>
       </c>
       <c r="N27" t="n">
-        <v>1011.903906418173</v>
+        <v>797.9518942435327</v>
       </c>
       <c r="O27" t="n">
-        <v>1299.666785207595</v>
+        <v>1085.714773032954</v>
       </c>
       <c r="P27" t="n">
         <v>1299.666785207595</v>
@@ -6330,25 +6330,25 @@
         <v>1208.883641076363</v>
       </c>
       <c r="S27" t="n">
-        <v>1038.573554355003</v>
+        <v>1097.981471470601</v>
       </c>
       <c r="T27" t="n">
-        <v>1038.573554355003</v>
+        <v>1097.981471470601</v>
       </c>
       <c r="U27" t="n">
-        <v>1038.573554355003</v>
+        <v>869.7688588427441</v>
       </c>
       <c r="V27" t="n">
-        <v>1038.573554355003</v>
+        <v>634.6167506110014</v>
       </c>
       <c r="W27" t="n">
-        <v>1038.573554355003</v>
+        <v>380.3793938827997</v>
       </c>
       <c r="X27" t="n">
-        <v>1038.573554355003</v>
+        <v>172.5278936772669</v>
       </c>
       <c r="Y27" t="n">
-        <v>1038.573554355003</v>
+        <v>172.5278936772669</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.25355777162449</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="C28" t="n">
         <v>25.99333570415189</v>
@@ -6388,7 +6388,7 @@
         <v>25.99333570415189</v>
       </c>
       <c r="L28" t="n">
-        <v>73.74338518666889</v>
+        <v>73.74338518666887</v>
       </c>
       <c r="M28" t="n">
         <v>134.4782404095286</v>
@@ -6409,25 +6409,25 @@
         <v>256.9020226018642</v>
       </c>
       <c r="S28" t="n">
-        <v>256.9020226018642</v>
+        <v>33.06674780002652</v>
       </c>
       <c r="T28" t="n">
-        <v>256.9020226018642</v>
+        <v>33.06674780002652</v>
       </c>
       <c r="U28" t="n">
-        <v>256.9020226018642</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="V28" t="n">
-        <v>256.9020226018642</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="W28" t="n">
-        <v>256.9020226018642</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="X28" t="n">
-        <v>256.9020226018642</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="Y28" t="n">
-        <v>256.9020226018642</v>
+        <v>25.99333570415189</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>554.7402602578088</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="C29" t="n">
-        <v>554.7402602578088</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="D29" t="n">
-        <v>226.5415771245778</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="E29" t="n">
-        <v>226.5415771245778</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="F29" t="n">
-        <v>226.5415771245778</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="G29" t="n">
-        <v>226.5415771245778</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="H29" t="n">
-        <v>226.5415771245778</v>
+        <v>165.4292418099691</v>
       </c>
       <c r="I29" t="n">
         <v>25.99333570415189</v>
       </c>
       <c r="J29" t="n">
-        <v>40.17174739611605</v>
+        <v>40.17174739611619</v>
       </c>
       <c r="K29" t="n">
-        <v>182.1663153959772</v>
+        <v>182.1663153959773</v>
       </c>
       <c r="L29" t="n">
-        <v>410.5997605606222</v>
+        <v>410.5997605606224</v>
       </c>
       <c r="M29" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920248</v>
       </c>
       <c r="N29" t="n">
-        <v>941.9148465525579</v>
+        <v>941.9148465525578</v>
       </c>
       <c r="O29" t="n">
         <v>1142.740489123005</v>
@@ -6485,28 +6485,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R29" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S29" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T29" t="n">
-        <v>1211.137626524271</v>
+        <v>1075.686093489782</v>
       </c>
       <c r="U29" t="n">
-        <v>1211.137626524271</v>
+        <v>821.8266080764311</v>
       </c>
       <c r="V29" t="n">
-        <v>1211.137626524271</v>
+        <v>821.8266080764311</v>
       </c>
       <c r="W29" t="n">
-        <v>1211.137626524271</v>
+        <v>821.8266080764311</v>
       </c>
       <c r="X29" t="n">
-        <v>1211.137626524271</v>
+        <v>821.8266080764311</v>
       </c>
       <c r="Y29" t="n">
-        <v>882.9389433910399</v>
+        <v>493.6279249432001</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>396.7398863470443</v>
+        <v>360.850396819836</v>
       </c>
       <c r="C30" t="n">
-        <v>222.2868570659173</v>
+        <v>360.850396819836</v>
       </c>
       <c r="D30" t="n">
-        <v>222.2868570659173</v>
+        <v>360.850396819836</v>
       </c>
       <c r="E30" t="n">
-        <v>222.2868570659173</v>
+        <v>360.850396819836</v>
       </c>
       <c r="F30" t="n">
-        <v>222.2868570659173</v>
+        <v>360.850396819836</v>
       </c>
       <c r="G30" t="n">
         <v>222.2868570659173</v>
@@ -6540,25 +6540,25 @@
         <v>25.99333570415189</v>
       </c>
       <c r="J30" t="n">
-        <v>40.74452089303865</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="K30" t="n">
-        <v>192.5774890298645</v>
+        <v>177.8263038409778</v>
       </c>
       <c r="L30" t="n">
-        <v>458.140048328703</v>
+        <v>443.3888631398162</v>
       </c>
       <c r="M30" t="n">
-        <v>458.140048328703</v>
+        <v>765.0563924786959</v>
       </c>
       <c r="N30" t="n">
-        <v>779.8075776675826</v>
+        <v>1086.723921817576</v>
       </c>
       <c r="O30" t="n">
-        <v>1067.570456457004</v>
+        <v>1086.723921817576</v>
       </c>
       <c r="P30" t="n">
-        <v>1281.522468631644</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q30" t="n">
         <v>1299.666785207595</v>
@@ -6573,19 +6573,19 @@
         <v>837.061238330984</v>
       </c>
       <c r="U30" t="n">
-        <v>631.891994578787</v>
+        <v>822.9392537535705</v>
       </c>
       <c r="V30" t="n">
-        <v>396.7398863470443</v>
+        <v>822.9392537535705</v>
       </c>
       <c r="W30" t="n">
-        <v>396.7398863470443</v>
+        <v>568.7018970253689</v>
       </c>
       <c r="X30" t="n">
-        <v>396.7398863470443</v>
+        <v>360.850396819836</v>
       </c>
       <c r="Y30" t="n">
-        <v>396.7398863470443</v>
+        <v>360.850396819836</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.99333570415189</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="C31" t="n">
-        <v>25.99333570415189</v>
+        <v>1130.730602279688</v>
       </c>
       <c r="D31" t="n">
-        <v>25.99333570415189</v>
+        <v>1130.730602279688</v>
       </c>
       <c r="E31" t="n">
-        <v>25.99333570415189</v>
+        <v>1130.730602279688</v>
       </c>
       <c r="F31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="G31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="H31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="I31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="J31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="K31" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="L31" t="n">
-        <v>73.74338518666889</v>
+        <v>1116.508147792399</v>
       </c>
       <c r="M31" t="n">
-        <v>134.4782404095286</v>
+        <v>1177.243003015259</v>
       </c>
       <c r="N31" t="n">
-        <v>199.2035729461179</v>
+        <v>1241.968335551848</v>
       </c>
       <c r="O31" t="n">
-        <v>242.9715981278102</v>
+        <v>1285.736360733541</v>
       </c>
       <c r="P31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="R31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="V31" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="W31" t="n">
-        <v>25.99333570415189</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="X31" t="n">
-        <v>25.99333570415189</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.99333570415189</v>
+        <v>1299.666785207595</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>354.1920188373829</v>
       </c>
       <c r="D32" t="n">
-        <v>25.99333570415189</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="E32" t="n">
-        <v>25.99333570415189</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="F32" t="n">
-        <v>25.99333570415189</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="G32" t="n">
         <v>25.99333570415189</v>
@@ -6722,28 +6722,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R32" t="n">
-        <v>1299.666785207595</v>
+        <v>1167.923710032689</v>
       </c>
       <c r="S32" t="n">
-        <v>1095.660048493659</v>
+        <v>1167.923710032689</v>
       </c>
       <c r="T32" t="n">
-        <v>871.6793567758461</v>
+        <v>1167.923710032689</v>
       </c>
       <c r="U32" t="n">
+        <v>1167.923710032689</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1167.923710032689</v>
+      </c>
+      <c r="W32" t="n">
+        <v>839.725026899458</v>
+      </c>
+      <c r="X32" t="n">
+        <v>839.725026899458</v>
+      </c>
+      <c r="Y32" t="n">
         <v>682.3907019706139</v>
-      </c>
-      <c r="V32" t="n">
-        <v>354.1920188373829</v>
-      </c>
-      <c r="W32" t="n">
-        <v>354.1920188373829</v>
-      </c>
-      <c r="X32" t="n">
-        <v>354.1920188373829</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>354.1920188373829</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>349.3807746465302</v>
+        <v>675.701775435306</v>
       </c>
       <c r="C33" t="n">
-        <v>174.9277453654032</v>
+        <v>675.701775435306</v>
       </c>
       <c r="D33" t="n">
-        <v>25.99333570415189</v>
+        <v>666.6224097984066</v>
       </c>
       <c r="E33" t="n">
-        <v>25.99333570415189</v>
+        <v>507.384954792951</v>
       </c>
       <c r="F33" t="n">
-        <v>25.99333570415189</v>
+        <v>360.850396819836</v>
       </c>
       <c r="G33" t="n">
-        <v>25.99333570415189</v>
+        <v>222.2868570659173</v>
       </c>
       <c r="H33" t="n">
-        <v>25.99333570415189</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="I33" t="n">
         <v>25.99333570415189</v>
@@ -6780,16 +6780,16 @@
         <v>40.74452089303865</v>
       </c>
       <c r="K33" t="n">
-        <v>103.0062884415755</v>
+        <v>192.5774890298645</v>
       </c>
       <c r="L33" t="n">
-        <v>368.5688477404139</v>
+        <v>458.140048328703</v>
       </c>
       <c r="M33" t="n">
-        <v>690.2363770792936</v>
+        <v>779.8075776675826</v>
       </c>
       <c r="N33" t="n">
-        <v>1011.903906418173</v>
+        <v>1101.475107006462</v>
       </c>
       <c r="O33" t="n">
         <v>1299.666785207595</v>
@@ -6807,22 +6807,22 @@
         <v>1299.666785207595</v>
       </c>
       <c r="T33" t="n">
-        <v>1299.666785207595</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="U33" t="n">
-        <v>1299.666785207595</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="V33" t="n">
-        <v>1187.445267365287</v>
+        <v>1098.154469183576</v>
       </c>
       <c r="W33" t="n">
-        <v>933.207910637085</v>
+        <v>843.9171124553741</v>
       </c>
       <c r="X33" t="n">
-        <v>725.3564104315521</v>
+        <v>843.9171124553741</v>
       </c>
       <c r="Y33" t="n">
-        <v>517.5961116665983</v>
+        <v>843.9171124553741</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="C34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="D34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="E34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="F34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="G34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="H34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="I34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="J34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="K34" t="n">
-        <v>25.99333570415189</v>
+        <v>1068.758098309882</v>
       </c>
       <c r="L34" t="n">
-        <v>73.74338518666889</v>
+        <v>1116.508147792399</v>
       </c>
       <c r="M34" t="n">
-        <v>134.4782404095286</v>
+        <v>1177.243003015259</v>
       </c>
       <c r="N34" t="n">
-        <v>199.2035729461179</v>
+        <v>1241.968335551848</v>
       </c>
       <c r="O34" t="n">
-        <v>242.9715981278102</v>
+        <v>1285.736360733541</v>
       </c>
       <c r="P34" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="R34" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S34" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T34" t="n">
-        <v>256.9020226018642</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U34" t="n">
-        <v>256.9020226018642</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="V34" t="n">
-        <v>256.9020226018642</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="W34" t="n">
-        <v>256.9020226018642</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="X34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.91247170384685</v>
+        <v>1215.648045807792</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>535.6577047315127</v>
+        <v>294.9396912991064</v>
       </c>
       <c r="C35" t="n">
-        <v>535.6577047315127</v>
+        <v>294.9396912991064</v>
       </c>
       <c r="D35" t="n">
-        <v>294.9396912991065</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="E35" t="n">
-        <v>294.9396912991065</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="F35" t="n">
-        <v>294.9396912991065</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="G35" t="n">
         <v>21.64494398711011</v>
@@ -6941,19 +6941,19 @@
         <v>177.8179236789354</v>
       </c>
       <c r="L35" t="n">
-        <v>196.1067604994481</v>
+        <v>406.2513688435805</v>
       </c>
       <c r="M35" t="n">
-        <v>463.9629423399356</v>
+        <v>674.107550684068</v>
       </c>
       <c r="N35" t="n">
-        <v>724.4952607004689</v>
+        <v>934.6398690446013</v>
       </c>
       <c r="O35" t="n">
-        <v>925.3209032709162</v>
+        <v>948.5215425946139</v>
       </c>
       <c r="P35" t="n">
-        <v>1059.046560031808</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="Q35" t="n">
         <v>1082.247199355505</v>
@@ -6974,13 +6974,13 @@
         <v>1082.247199355505</v>
       </c>
       <c r="W35" t="n">
-        <v>1082.247199355505</v>
+        <v>808.952452043509</v>
       </c>
       <c r="X35" t="n">
-        <v>1082.247199355505</v>
+        <v>535.6577047315127</v>
       </c>
       <c r="Y35" t="n">
-        <v>808.9524520435091</v>
+        <v>294.9396912991064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>412.3980436568172</v>
+        <v>170.5793536483614</v>
       </c>
       <c r="C36" t="n">
-        <v>412.3980436568172</v>
+        <v>170.5793536483614</v>
       </c>
       <c r="D36" t="n">
-        <v>412.3980436568172</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="E36" t="n">
-        <v>412.3980436568172</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="F36" t="n">
-        <v>265.8634856837022</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="G36" t="n">
-        <v>133.3984522507958</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="H36" t="n">
         <v>21.64494398711011</v>
@@ -7020,46 +7020,46 @@
         <v>36.39612917599687</v>
       </c>
       <c r="L36" t="n">
-        <v>301.9586884748353</v>
+        <v>64.72664165940216</v>
       </c>
       <c r="M36" t="n">
-        <v>301.9586884748353</v>
+        <v>332.5828234998897</v>
       </c>
       <c r="N36" t="n">
-        <v>569.8148703153229</v>
+        <v>600.4390053403772</v>
       </c>
       <c r="O36" t="n">
-        <v>777.9717024451145</v>
+        <v>868.2951871808648</v>
       </c>
       <c r="P36" t="n">
-        <v>991.9237146197549</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="Q36" t="n">
         <v>1082.247199355505</v>
       </c>
       <c r="R36" t="n">
-        <v>1082.247199355505</v>
+        <v>991.4640552242734</v>
       </c>
       <c r="S36" t="n">
-        <v>1082.247199355505</v>
+        <v>821.1539685029135</v>
       </c>
       <c r="T36" t="n">
-        <v>1082.247199355505</v>
+        <v>821.1539685029135</v>
       </c>
       <c r="U36" t="n">
-        <v>1082.247199355505</v>
+        <v>613.5829620856368</v>
       </c>
       <c r="V36" t="n">
-        <v>1082.247199355505</v>
+        <v>378.4308538538942</v>
       </c>
       <c r="W36" t="n">
-        <v>828.0098426273039</v>
+        <v>378.4308538538942</v>
       </c>
       <c r="X36" t="n">
-        <v>620.1583424217711</v>
+        <v>170.5793536483614</v>
       </c>
       <c r="Y36" t="n">
-        <v>412.3980436568172</v>
+        <v>170.5793536483614</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="C37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="D37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="E37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="F37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="G37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="H37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="I37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="J37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="K37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="L37" t="n">
-        <v>899.0885619403101</v>
+        <v>69.3949934696271</v>
       </c>
       <c r="M37" t="n">
-        <v>959.8234171631698</v>
+        <v>130.1298486924868</v>
       </c>
       <c r="N37" t="n">
-        <v>1024.548749699759</v>
+        <v>194.8551812290761</v>
       </c>
       <c r="O37" t="n">
-        <v>1068.316774881451</v>
+        <v>238.6232064107684</v>
       </c>
       <c r="P37" t="n">
-        <v>1082.247199355505</v>
+        <v>252.5536308848224</v>
       </c>
       <c r="Q37" t="n">
-        <v>1082.247199355505</v>
+        <v>252.5536308848224</v>
       </c>
       <c r="R37" t="n">
-        <v>909.4689663960944</v>
+        <v>252.5536308848224</v>
       </c>
       <c r="S37" t="n">
-        <v>851.3385124577932</v>
+        <v>28.71835608298474</v>
       </c>
       <c r="T37" t="n">
-        <v>851.3385124577932</v>
+        <v>28.71835608298474</v>
       </c>
       <c r="U37" t="n">
-        <v>851.3385124577932</v>
+        <v>28.71835608298474</v>
       </c>
       <c r="V37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="W37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="X37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="Y37" t="n">
-        <v>851.3385124577932</v>
+        <v>21.64494398711011</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.9396912991065</v>
+        <v>768.7826800315288</v>
       </c>
       <c r="C38" t="n">
-        <v>294.9396912991065</v>
+        <v>495.4879327195324</v>
       </c>
       <c r="D38" t="n">
-        <v>294.9396912991065</v>
+        <v>495.4879327195324</v>
       </c>
       <c r="E38" t="n">
-        <v>294.9396912991065</v>
+        <v>222.193185407536</v>
       </c>
       <c r="F38" t="n">
-        <v>21.64494398711011</v>
+        <v>222.193185407536</v>
       </c>
       <c r="G38" t="n">
-        <v>21.64494398711011</v>
+        <v>222.193185407536</v>
       </c>
       <c r="H38" t="n">
-        <v>21.64494398711011</v>
+        <v>222.193185407536</v>
       </c>
       <c r="I38" t="n">
         <v>21.64494398711011</v>
       </c>
       <c r="J38" t="n">
-        <v>35.82335567907431</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="K38" t="n">
-        <v>101.3989720956943</v>
+        <v>163.6395119869712</v>
       </c>
       <c r="L38" t="n">
-        <v>329.8324172603393</v>
+        <v>392.0729571516163</v>
       </c>
       <c r="M38" t="n">
-        <v>597.6885991008269</v>
+        <v>659.9291389921038</v>
       </c>
       <c r="N38" t="n">
-        <v>858.2209174613602</v>
+        <v>920.4614573526371</v>
       </c>
       <c r="O38" t="n">
-        <v>1059.046560031808</v>
+        <v>925.3209032709162</v>
       </c>
       <c r="P38" t="n">
         <v>1059.046560031808</v>
@@ -7196,28 +7196,28 @@
         <v>1082.247199355505</v>
       </c>
       <c r="R38" t="n">
-        <v>1082.247199355505</v>
+        <v>1042.077427343525</v>
       </c>
       <c r="S38" t="n">
-        <v>1082.247199355505</v>
+        <v>1042.077427343525</v>
       </c>
       <c r="T38" t="n">
-        <v>1082.247199355505</v>
+        <v>1042.077427343525</v>
       </c>
       <c r="U38" t="n">
-        <v>841.5291859230992</v>
+        <v>1042.077427343525</v>
       </c>
       <c r="V38" t="n">
-        <v>568.2344386111029</v>
+        <v>768.7826800315288</v>
       </c>
       <c r="W38" t="n">
-        <v>568.2344386111029</v>
+        <v>768.7826800315288</v>
       </c>
       <c r="X38" t="n">
-        <v>568.2344386111029</v>
+        <v>768.7826800315288</v>
       </c>
       <c r="Y38" t="n">
-        <v>568.2344386111029</v>
+        <v>768.7826800315288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>196.0979732682371</v>
+        <v>763.251442596417</v>
       </c>
       <c r="C39" t="n">
-        <v>21.64494398711011</v>
+        <v>588.79841331529</v>
       </c>
       <c r="D39" t="n">
-        <v>21.64494398711011</v>
+        <v>439.8640036540387</v>
       </c>
       <c r="E39" t="n">
-        <v>21.64494398711011</v>
+        <v>280.6265486485832</v>
       </c>
       <c r="F39" t="n">
-        <v>21.64494398711011</v>
+        <v>134.0919906754682</v>
       </c>
       <c r="G39" t="n">
-        <v>21.64494398711011</v>
+        <v>106.1849570851898</v>
       </c>
       <c r="H39" t="n">
-        <v>21.64494398711011</v>
+        <v>106.1849570851898</v>
       </c>
       <c r="I39" t="n">
         <v>21.64494398711011</v>
@@ -7257,16 +7257,16 @@
         <v>36.39612917599687</v>
       </c>
       <c r="L39" t="n">
-        <v>301.9586884748353</v>
+        <v>242.2593387641393</v>
       </c>
       <c r="M39" t="n">
-        <v>569.8148703153229</v>
+        <v>510.1155206046269</v>
       </c>
       <c r="N39" t="n">
-        <v>837.6710521558105</v>
+        <v>510.1155206046269</v>
       </c>
       <c r="O39" t="n">
-        <v>991.9237146197549</v>
+        <v>777.9717024451145</v>
       </c>
       <c r="P39" t="n">
         <v>991.9237146197549</v>
@@ -7275,28 +7275,28 @@
         <v>1082.247199355505</v>
       </c>
       <c r="R39" t="n">
-        <v>1082.247199355505</v>
+        <v>991.4640552242736</v>
       </c>
       <c r="S39" t="n">
-        <v>1082.247199355505</v>
+        <v>991.4640552242736</v>
       </c>
       <c r="T39" t="n">
-        <v>1008.137721886649</v>
+        <v>991.4640552242736</v>
       </c>
       <c r="U39" t="n">
-        <v>779.925109258792</v>
+        <v>763.251442596417</v>
       </c>
       <c r="V39" t="n">
-        <v>779.925109258792</v>
+        <v>763.251442596417</v>
       </c>
       <c r="W39" t="n">
-        <v>779.925109258792</v>
+        <v>763.251442596417</v>
       </c>
       <c r="X39" t="n">
-        <v>572.0736090532591</v>
+        <v>763.251442596417</v>
       </c>
       <c r="Y39" t="n">
-        <v>364.3133102883052</v>
+        <v>763.251442596417</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="C40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="D40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="E40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="F40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="G40" t="n">
-        <v>912.6995880984284</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="H40" t="n">
         <v>851.3385124577932</v>
@@ -7351,31 +7351,31 @@
         <v>1082.247199355505</v>
       </c>
       <c r="Q40" t="n">
-        <v>1082.247199355505</v>
+        <v>1024.116745417204</v>
       </c>
       <c r="R40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="S40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="T40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="U40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="V40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="W40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="X40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
       <c r="Y40" t="n">
-        <v>1082.247199355505</v>
+        <v>851.3385124577932</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="C41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="D41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="E41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="F41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="G41" t="n">
-        <v>21.08546861543597</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="H41" t="n">
-        <v>21.08546861543597</v>
+        <v>221.6337100358619</v>
       </c>
       <c r="I41" t="n">
         <v>21.08546861543597</v>
       </c>
       <c r="J41" t="n">
-        <v>21.08546861543597</v>
+        <v>35.26388030740017</v>
       </c>
       <c r="K41" t="n">
-        <v>21.08546861543597</v>
+        <v>177.2584483072613</v>
       </c>
       <c r="L41" t="n">
-        <v>175.0564996402086</v>
+        <v>405.6918934719063</v>
       </c>
       <c r="M41" t="n">
-        <v>435.9891737562287</v>
+        <v>666.6245675879264</v>
       </c>
       <c r="N41" t="n">
-        <v>696.5214921167619</v>
+        <v>927.1568859484596</v>
       </c>
       <c r="O41" t="n">
-        <v>897.3471346872093</v>
+        <v>1054.273430771799</v>
       </c>
       <c r="P41" t="n">
-        <v>1031.072791448101</v>
+        <v>1054.273430771799</v>
       </c>
       <c r="Q41" t="n">
         <v>1054.273430771799</v>
       </c>
       <c r="R41" t="n">
-        <v>1054.273430771799</v>
+        <v>922.5303555968931</v>
       </c>
       <c r="S41" t="n">
-        <v>1054.273430771799</v>
+        <v>718.5236188829571</v>
       </c>
       <c r="T41" t="n">
-        <v>1054.273430771799</v>
+        <v>494.5429271651445</v>
       </c>
       <c r="U41" t="n">
-        <v>1054.273430771799</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="V41" t="n">
-        <v>1054.273430771799</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="W41" t="n">
-        <v>788.0427664354858</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="X41" t="n">
-        <v>521.812102099173</v>
+        <v>240.6834417517935</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5814377628602</v>
+        <v>240.6834417517935</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.4242750731102</v>
+        <v>195.538497896563</v>
       </c>
       <c r="C42" t="n">
-        <v>384.4242750731102</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="D42" t="n">
-        <v>384.4242750731102</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="E42" t="n">
-        <v>384.4242750731102</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="F42" t="n">
-        <v>237.8897170999952</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="G42" t="n">
-        <v>99.32617734607643</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="H42" t="n">
         <v>21.08546861543597</v>
@@ -7491,19 +7491,19 @@
         <v>35.83665380432273</v>
       </c>
       <c r="K42" t="n">
-        <v>57.5233962490978</v>
+        <v>187.6696219411486</v>
       </c>
       <c r="L42" t="n">
-        <v>57.5233962490978</v>
+        <v>271.4754084237383</v>
       </c>
       <c r="M42" t="n">
-        <v>318.4560703651179</v>
+        <v>532.4080825397584</v>
       </c>
       <c r="N42" t="n">
-        <v>579.388744481138</v>
+        <v>793.3407566557785</v>
       </c>
       <c r="O42" t="n">
-        <v>840.3214185971581</v>
+        <v>1054.273430771799</v>
       </c>
       <c r="P42" t="n">
         <v>1054.273430771799</v>
@@ -7512,28 +7512,28 @@
         <v>1054.273430771799</v>
       </c>
       <c r="R42" t="n">
-        <v>1054.273430771799</v>
+        <v>963.4902866405666</v>
       </c>
       <c r="S42" t="n">
-        <v>1054.273430771799</v>
+        <v>793.1801999192068</v>
       </c>
       <c r="T42" t="n">
-        <v>1054.273430771799</v>
+        <v>793.1801999192068</v>
       </c>
       <c r="U42" t="n">
-        <v>1054.273430771799</v>
+        <v>571.514133681585</v>
       </c>
       <c r="V42" t="n">
-        <v>1054.273430771799</v>
+        <v>571.514133681585</v>
       </c>
       <c r="W42" t="n">
-        <v>800.036074043597</v>
+        <v>571.514133681585</v>
       </c>
       <c r="X42" t="n">
-        <v>592.1845738380641</v>
+        <v>571.514133681585</v>
       </c>
       <c r="Y42" t="n">
-        <v>384.4242750731102</v>
+        <v>363.753834916631</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.15888071131059</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="C43" t="n">
-        <v>28.15888071131059</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="D43" t="n">
-        <v>28.15888071131059</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="E43" t="n">
-        <v>28.15888071131059</v>
+        <v>21.08546861543597</v>
       </c>
       <c r="F43" t="n">
         <v>21.08546861543597</v>
@@ -7594,25 +7594,25 @@
         <v>251.9941555131483</v>
       </c>
       <c r="S43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="T43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="U43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="V43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="W43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="X43" t="n">
-        <v>28.15888071131059</v>
+        <v>251.9941555131483</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.15888071131059</v>
+        <v>31.20157636961815</v>
       </c>
     </row>
     <row r="44">
@@ -8693,16 +8693,16 @@
         <v>235.0714524686708</v>
       </c>
       <c r="L11" t="n">
-        <v>241.2752573118111</v>
+        <v>186.9203608487888</v>
       </c>
       <c r="M11" t="n">
         <v>230.3504828534281</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5850883146869</v>
+        <v>228.5378629350739</v>
       </c>
       <c r="O11" t="n">
-        <v>177.945996848152</v>
+        <v>192.3481186907874</v>
       </c>
       <c r="P11" t="n">
         <v>186.7222872008853</v>
@@ -8772,22 +8772,22 @@
         <v>111.0986025309363</v>
       </c>
       <c r="L12" t="n">
-        <v>139.8538878813844</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M12" t="n">
         <v>154.5264222682324</v>
       </c>
       <c r="N12" t="n">
-        <v>142.6234777030354</v>
+        <v>88.26858124001302</v>
       </c>
       <c r="O12" t="n">
-        <v>103.1927447419605</v>
+        <v>157.5476412049828</v>
       </c>
       <c r="P12" t="n">
-        <v>102.3496250291892</v>
+        <v>156.7045214922115</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.1963410314467</v>
+        <v>156.0999965391158</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>171.5162187635189</v>
+        <v>171.5162187635188</v>
       </c>
       <c r="N13" t="n">
-        <v>160.7934895331516</v>
+        <v>160.7934895331515</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8930,19 +8930,19 @@
         <v>235.0714524686708</v>
       </c>
       <c r="L14" t="n">
-        <v>186.9203608487888</v>
+        <v>241.2752573118111</v>
       </c>
       <c r="M14" t="n">
-        <v>190.3977082330411</v>
+        <v>230.3504828534281</v>
       </c>
       <c r="N14" t="n">
-        <v>174.1829664720516</v>
+        <v>188.585088314687</v>
       </c>
       <c r="O14" t="n">
-        <v>232.3008933111744</v>
+        <v>177.945996848152</v>
       </c>
       <c r="P14" t="n">
-        <v>241.0771836639077</v>
+        <v>186.7222872008853</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>165.4534989939586</v>
       </c>
       <c r="L15" t="n">
-        <v>156.9502323737154</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M15" t="n">
-        <v>137.4300777759015</v>
+        <v>100.1715258052101</v>
       </c>
       <c r="N15" t="n">
         <v>88.26858124001302</v>
       </c>
       <c r="O15" t="n">
-        <v>103.1927447419605</v>
+        <v>140.4512967126519</v>
       </c>
       <c r="P15" t="n">
-        <v>102.3496250291892</v>
+        <v>156.7045214922115</v>
       </c>
       <c r="Q15" t="n">
         <v>173.1963410314467</v>
@@ -9170,19 +9170,19 @@
         <v>248.268699457738</v>
       </c>
       <c r="M17" t="n">
-        <v>220.5435762757972</v>
+        <v>237.343924999355</v>
       </c>
       <c r="N17" t="n">
-        <v>174.1829664720516</v>
+        <v>195.2959671415865</v>
       </c>
       <c r="O17" t="n">
         <v>177.945996848152</v>
       </c>
       <c r="P17" t="n">
-        <v>248.0706258098345</v>
+        <v>186.7222872008853</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.8800014440481</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0986025309363</v>
+        <v>155.0680333285272</v>
       </c>
       <c r="L18" t="n">
-        <v>163.9436745196422</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M18" t="n">
-        <v>161.5198644141592</v>
+        <v>100.1715258052101</v>
       </c>
       <c r="N18" t="n">
-        <v>132.2380120376039</v>
+        <v>149.6169198489622</v>
       </c>
       <c r="O18" t="n">
         <v>103.1927447419605</v>
@@ -9261,7 +9261,7 @@
         <v>163.6979636381384</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.8414445684244</v>
+        <v>180.1897831773735</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M21" t="n">
-        <v>425.0882221071088</v>
+        <v>386.7441276989359</v>
       </c>
       <c r="N21" t="n">
-        <v>88.26858124001302</v>
+        <v>413.1852775419117</v>
       </c>
       <c r="O21" t="n">
-        <v>320.9540686102647</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8414445684244</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>102.5953359106931</v>
+        <v>189.1285419458434</v>
       </c>
       <c r="M24" t="n">
-        <v>425.0882221071088</v>
+        <v>425.0882221071087</v>
       </c>
       <c r="N24" t="n">
-        <v>374.841183133739</v>
+        <v>413.1852775419117</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>102.3496250291892</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.8414445684244</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M27" t="n">
-        <v>425.0882221071087</v>
+        <v>386.7441276989359</v>
       </c>
       <c r="N27" t="n">
-        <v>322.7093173517207</v>
+        <v>413.1852775419117</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>102.3496250291892</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>118.8414445684244</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>111.1908482809273</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>100.1715258052101</v>
+        <v>425.0882221071087</v>
       </c>
       <c r="N30" t="n">
         <v>413.1852775419117</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>103.1927447419605</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>317.4434264332489</v>
       </c>
       <c r="Q30" t="n">
-        <v>137.1690370693841</v>
+        <v>118.8414445684244</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>173.9892768223876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>413.1852775419117</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3863590865387</v>
       </c>
       <c r="P33" t="n">
         <v>102.3496250291892</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>205.3939333947611</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>446.5573862292821</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>191.9678893229124</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>188.8800014440481</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,22 +10668,22 @@
         <v>111.0986025309363</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>131.21201518686</v>
       </c>
       <c r="M36" t="n">
-        <v>100.1715258052101</v>
+        <v>370.7333256440864</v>
       </c>
       <c r="N36" t="n">
-        <v>358.8303810788894</v>
+        <v>358.8303810788893</v>
       </c>
       <c r="O36" t="n">
-        <v>313.4521711356894</v>
+        <v>373.7545445808368</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8414445684244</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>154.7749872003928</v>
       </c>
       <c r="K38" t="n">
-        <v>246.9545523860727</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>182.854528078737</v>
       </c>
       <c r="P38" t="n">
-        <v>186.7222872008853</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,19 +10905,19 @@
         <v>111.0986025309363</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>310.5379718583117</v>
       </c>
       <c r="M39" t="n">
         <v>370.7333256440864</v>
       </c>
       <c r="N39" t="n">
-        <v>358.8303810788894</v>
+        <v>88.26858124001302</v>
       </c>
       <c r="O39" t="n">
-        <v>259.003514907561</v>
+        <v>373.7545445808369</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3496250291892</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>154.7749872003928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>180.7165560056485</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>342.4466548132056</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>439.5639440833554</v>
@@ -11072,13 +11072,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>306.346547174757</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>186.7222872008853</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>188.8800014440481</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>133.004402980204</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>102.5953359106931</v>
+        <v>187.2476454890665</v>
       </c>
       <c r="M42" t="n">
         <v>363.7398834981597</v>
@@ -11154,7 +11154,7 @@
         <v>366.7611024349101</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>102.3496250291892</v>
       </c>
       <c r="Q42" t="n">
         <v>118.8414445684244</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>352.5211492786891</v>
       </c>
       <c r="G11" t="n">
-        <v>414.9932081573973</v>
+        <v>360.638311694375</v>
       </c>
       <c r="H11" t="n">
-        <v>336.3048345808355</v>
+        <v>288.4290417762055</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5427590062217</v>
+        <v>144.1878625431993</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>130.4256444231564</v>
       </c>
       <c r="S11" t="n">
-        <v>147.6117728837742</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T11" t="n">
-        <v>167.385988337612</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U11" t="n">
-        <v>196.9659940961951</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V11" t="n">
-        <v>279.8764656655048</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.178287186845</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3536025252934</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,7 +23349,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>89.30211155174948</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H12" t="n">
         <v>110.6359731810488</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>89.87531268991961</v>
+        <v>35.52041622689727</v>
       </c>
       <c r="S12" t="n">
-        <v>168.6069858541462</v>
+        <v>114.2520893911239</v>
       </c>
       <c r="T12" t="n">
-        <v>199.4971928637787</v>
+        <v>145.1422964007564</v>
       </c>
       <c r="U12" t="n">
-        <v>225.930486501578</v>
+        <v>178.0546936969479</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>151.327799314282</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.497238681484</v>
+        <v>167.8521351445063</v>
       </c>
       <c r="H13" t="n">
-        <v>113.1169284187596</v>
+        <v>160.9927212233897</v>
       </c>
       <c r="I13" t="n">
-        <v>96.92015428464796</v>
+        <v>109.5375765479031</v>
       </c>
       <c r="J13" t="n">
-        <v>29.18799772721283</v>
+        <v>29.18799772721285</v>
       </c>
       <c r="K13" t="n">
-        <v>6.138318604862867</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53573366336769</v>
+        <v>20.18083720034535</v>
       </c>
       <c r="R13" t="n">
-        <v>171.050450629817</v>
+        <v>116.6955541667947</v>
       </c>
       <c r="S13" t="n">
         <v>221.5969220538193</v>
@@ -23507,7 +23507,7 @@
         <v>359.0002529370814</v>
       </c>
       <c r="G14" t="n">
-        <v>360.6383116943749</v>
+        <v>360.638311694375</v>
       </c>
       <c r="H14" t="n">
         <v>281.9499381178132</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>90.71431593036152</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1779043563795</v>
+        <v>82.82300789335719</v>
       </c>
       <c r="H15" t="n">
-        <v>110.6359731810488</v>
+        <v>56.28107671802645</v>
       </c>
       <c r="I15" t="n">
-        <v>83.69461296709891</v>
+        <v>35.81882016246881</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.52041622689725</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S15" t="n">
-        <v>114.2520893911239</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T15" t="n">
-        <v>145.1422964007564</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U15" t="n">
-        <v>178.054693696948</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.497238681484</v>
+        <v>167.8521351445063</v>
       </c>
       <c r="H16" t="n">
-        <v>113.1169284187596</v>
+        <v>160.9927212233897</v>
       </c>
       <c r="I16" t="n">
-        <v>96.92015428464796</v>
+        <v>109.5375765479031</v>
       </c>
       <c r="J16" t="n">
-        <v>29.18799772721283</v>
+        <v>29.18799772721284</v>
       </c>
       <c r="K16" t="n">
-        <v>6.138318604862867</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53573366336769</v>
+        <v>20.18083720034534</v>
       </c>
       <c r="R16" t="n">
-        <v>171.050450629817</v>
+        <v>116.6955541667946</v>
       </c>
       <c r="S16" t="n">
         <v>221.5969220538193</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>345.5277071327623</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>353.6448695484481</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H17" t="n">
-        <v>274.9564959718863</v>
+        <v>336.3048345808355</v>
       </c>
       <c r="I17" t="n">
         <v>144.5071423594593</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>130.4256444231564</v>
+        <v>69.07730581420721</v>
       </c>
       <c r="S17" t="n">
-        <v>201.9666693467966</v>
+        <v>140.6183307378474</v>
       </c>
       <c r="T17" t="n">
-        <v>221.7408848006344</v>
+        <v>160.3925461916853</v>
       </c>
       <c r="U17" t="n">
         <v>251.3208905592175</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>83.72087378443472</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>75.82956574743038</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H18" t="n">
-        <v>49.28763457209963</v>
+        <v>56.60035653428641</v>
       </c>
       <c r="I18" t="n">
-        <v>29.65899632033653</v>
+        <v>22.34627435814976</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.87531268991961</v>
+        <v>28.52697408097045</v>
       </c>
       <c r="S18" t="n">
-        <v>168.6069858541462</v>
+        <v>107.2586472451971</v>
       </c>
       <c r="T18" t="n">
         <v>199.4971928637787</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8521351445063</v>
+        <v>106.5037965355572</v>
       </c>
       <c r="H19" t="n">
         <v>160.9927212233897</v>
@@ -23911,7 +23911,7 @@
         <v>151.2750507476703</v>
       </c>
       <c r="J19" t="n">
-        <v>83.54289419023519</v>
+        <v>42.93888252893989</v>
       </c>
       <c r="K19" t="n">
         <v>6.138318604862867</v>
@@ -23935,7 +23935,7 @@
         <v>74.53573366336769</v>
       </c>
       <c r="R19" t="n">
-        <v>171.050450629817</v>
+        <v>109.7021120208678</v>
       </c>
       <c r="S19" t="n">
         <v>221.5969220538193</v>
@@ -23947,16 +23947,16 @@
         <v>286.3114560357299</v>
       </c>
       <c r="V19" t="n">
-        <v>190.7893047148788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>164.361316780088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.9806416907995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>40.35619546910891</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>29.76634531878432</v>
       </c>
       <c r="E20" t="n">
-        <v>57.01367377036308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>124.7411267664785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>90.07651185549861</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H20" t="n">
-        <v>336.3048345808355</v>
+        <v>11.38813827893688</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>198.5427590062217</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>230.4769569764979</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>83.69461296709892</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.6069858541462</v>
+        <v>61.18969111569675</v>
       </c>
       <c r="T21" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U21" t="n">
-        <v>225.930486501578</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>65.6555123250298</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4792012518298</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>160.9927212233897</v>
       </c>
       <c r="I22" t="n">
-        <v>151.2750507476703</v>
+        <v>148.3851061079723</v>
       </c>
       <c r="J22" t="n">
         <v>83.54289419023519</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57.81714536158188</v>
+        <v>57.81714536158194</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>29.76634531878426</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>414.9932081573973</v>
       </c>
       <c r="H23" t="n">
-        <v>11.38813827893682</v>
+        <v>336.3048345808355</v>
       </c>
       <c r="I23" t="n">
         <v>198.5427590062217</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>137.5209280447186</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3208905592175</v>
+        <v>194.3507667251941</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>44.81440437657039</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.74721173668917</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,16 +24294,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.1779043563795</v>
       </c>
       <c r="H24" t="n">
-        <v>110.6359731810488</v>
+        <v>61.89207261164913</v>
       </c>
       <c r="I24" t="n">
-        <v>83.69461296709892</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4971928637787</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.930486501578</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24385,7 +24385,7 @@
         <v>151.2750507476703</v>
       </c>
       <c r="J25" t="n">
-        <v>34.77527434343732</v>
+        <v>83.54289419023519</v>
       </c>
       <c r="K25" t="n">
         <v>6.138318604862867</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>215.6947087123967</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24443,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>40.35619546910891</v>
       </c>
       <c r="D26" t="n">
-        <v>319.8173060771883</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>57.01367377036314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>81.9593494398128</v>
       </c>
       <c r="G26" t="n">
-        <v>90.07651185549867</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H26" t="n">
-        <v>11.38813827893688</v>
+        <v>336.3048345808355</v>
       </c>
       <c r="I26" t="n">
         <v>198.5427590062217</v>
@@ -24497,16 +24497,16 @@
         <v>221.7408848006344</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>24.32427241551437</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>83.54447457575696</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>118.4551150917916</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.69461296709892</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>58.81383794444179</v>
       </c>
       <c r="T27" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U27" t="n">
-        <v>225.930486501578</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>118.47920125183</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,13 +24649,13 @@
         <v>171.050450629817</v>
       </c>
       <c r="S28" t="n">
-        <v>221.5969220538193</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>227.3523459686665</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3114560357299</v>
+        <v>279.308778060814</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>29.76634531878432</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>336.3048345808355</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>60.50121196146264</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>42.78177732666596</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S29" t="n">
         <v>201.9666693467966</v>
       </c>
       <c r="T29" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24813,16 +24813,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>22.81293518690305</v>
+        <v>211.9497217699387</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>84.06826909282378</v>
       </c>
       <c r="G31" t="n">
         <v>167.8521351445063</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>57.92339830785585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>57.81714536158194</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>29.76634531878432</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.9932081573973</v>
+        <v>90.07651185549867</v>
       </c>
       <c r="H32" t="n">
         <v>336.3048345808355</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U32" t="n">
-        <v>63.92512230203758</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V32" t="n">
-        <v>2.835562168236265</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>24.32427241551437</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>230.4769569764979</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>138.4564935841083</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,22 +25047,22 @@
         <v>168.6069858541462</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4971928637787</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.930486501578</v>
       </c>
       <c r="V33" t="n">
-        <v>121.7012844855404</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>142.5311033832332</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.8521351445063</v>
@@ -25129,7 +25129,7 @@
         <v>227.3523459686665</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3114560357299</v>
+        <v>203.1329040299257</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>112.1720418246042</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>116.3722083226008</v>
+        <v>84.12124178180665</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>144.4314083185209</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H35" t="n">
         <v>336.3048345808355</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>78.6791688785367</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>99.16930083959272</v>
       </c>
       <c r="Y35" t="n">
-        <v>115.6761388171772</v>
+        <v>147.9271053579713</v>
       </c>
     </row>
     <row r="36">
@@ -25236,19 +25236,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>6.03752125780224</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I36" t="n">
         <v>83.69461296709891</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U36" t="n">
-        <v>225.930486501578</v>
+        <v>20.43519014847416</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25357,10 @@
         <v>74.53573366336769</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S37" t="n">
-        <v>164.0477726549011</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>227.3523459686665</v>
@@ -25369,7 +25369,7 @@
         <v>286.3114560357299</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>245.1349653489121</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>112.1720418246042</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>94.71109193213118</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>111.3685702333854</v>
       </c>
       <c r="F38" t="n">
-        <v>136.3142459028351</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.9932081573973</v>
@@ -25409,7 +25409,7 @@
         <v>336.3048345808355</v>
       </c>
       <c r="I38" t="n">
-        <v>198.5427590062217</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>130.4256444231564</v>
+        <v>90.6575701312959</v>
       </c>
       <c r="S38" t="n">
         <v>201.9666693467966</v>
@@ -25445,7 +25445,7 @@
         <v>221.7408848006344</v>
       </c>
       <c r="U38" t="n">
-        <v>13.01005726113533</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V38" t="n">
         <v>57.19045863125854</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1779043563795</v>
+        <v>109.549941102004</v>
       </c>
       <c r="H39" t="n">
         <v>110.6359731810488</v>
       </c>
       <c r="I39" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.6069858541462</v>
       </c>
       <c r="T39" t="n">
-        <v>126.1288101696104</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8521351445063</v>
       </c>
       <c r="H40" t="n">
-        <v>100.2452563391608</v>
+        <v>160.9927212233897</v>
       </c>
       <c r="I40" t="n">
         <v>151.2750507476703</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.53573366336769</v>
+        <v>16.98658426444959</v>
       </c>
       <c r="R40" t="n">
-        <v>171.050450629817</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>221.5969220538193</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>182.8421987014473</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H41" t="n">
-        <v>336.3048345808355</v>
+        <v>317.4456001820632</v>
       </c>
       <c r="I41" t="n">
-        <v>198.5427590062217</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>201.9666693467966</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>85.67261102446338</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>106.1627429855194</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.669580963104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,13 +25716,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H42" t="n">
-        <v>33.17767153771474</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I42" t="n">
         <v>83.69461296709891</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U42" t="n">
-        <v>225.930486501578</v>
+        <v>6.48108092633251</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>169.8170335052969</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>138.4183700480154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.8521351445063</v>
@@ -25834,7 +25834,7 @@
         <v>171.050450629817</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>221.5969220538193</v>
       </c>
       <c r="T43" t="n">
         <v>227.3523459686665</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339492.7407082503</v>
+        <v>339492.7407082501</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520273.5456890189</v>
+        <v>520273.5456890186</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>520273.5456890187</v>
+        <v>520273.5456890189</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>520273.5456890188</v>
+        <v>520273.5456890187</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>484075.0925124927</v>
+        <v>484075.0925124926</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="E2" t="n">
-        <v>170957.5059325832</v>
+        <v>170957.5059325833</v>
       </c>
       <c r="F2" t="n">
         <v>170957.5059325832</v>
@@ -26329,13 +26329,13 @@
         <v>173414.5757419039</v>
       </c>
       <c r="H2" t="n">
-        <v>257710.7734138024</v>
+        <v>257710.7734138023</v>
       </c>
       <c r="I2" t="n">
         <v>257710.7734138024</v>
       </c>
       <c r="J2" t="n">
-        <v>257710.7734138024</v>
+        <v>257710.7734138023</v>
       </c>
       <c r="K2" t="n">
         <v>257710.7734138023</v>
@@ -26344,10 +26344,10 @@
         <v>257710.7734138024</v>
       </c>
       <c r="M2" t="n">
-        <v>240339.8247051513</v>
+        <v>240339.8247051515</v>
       </c>
       <c r="N2" t="n">
-        <v>240339.8247051513</v>
+        <v>240339.8247051514</v>
       </c>
       <c r="O2" t="n">
         <v>238104.8333296006</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>68005.51758236118</v>
+        <v>67274.21704273747</v>
       </c>
       <c r="F4" t="n">
-        <v>68005.51758236118</v>
+        <v>67274.21704273747</v>
       </c>
       <c r="G4" t="n">
-        <v>69231.27299797848</v>
+        <v>68486.84204735643</v>
       </c>
       <c r="H4" t="n">
-        <v>111284.0142022813</v>
+        <v>110089.1102057451</v>
       </c>
       <c r="I4" t="n">
-        <v>111284.0142022813</v>
+        <v>110089.1102057451</v>
       </c>
       <c r="J4" t="n">
-        <v>111284.0142022813</v>
+        <v>110089.1102057451</v>
       </c>
       <c r="K4" t="n">
-        <v>111284.0142022813</v>
+        <v>110089.1102057451</v>
       </c>
       <c r="L4" t="n">
-        <v>111284.0142022813</v>
+        <v>110089.1102057451</v>
       </c>
       <c r="M4" t="n">
-        <v>102618.1902304648</v>
+        <v>101516.1153815215</v>
       </c>
       <c r="N4" t="n">
-        <v>102618.1902304648</v>
+        <v>101516.1153815215</v>
       </c>
       <c r="O4" t="n">
-        <v>101503.2228119377</v>
+        <v>100413.0916022135</v>
       </c>
       <c r="P4" t="n">
-        <v>57634.9413537939</v>
+        <v>57014.73143342072</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4983.27802962409</v>
+        <v>4983.278029624089</v>
       </c>
       <c r="F5" t="n">
-        <v>4983.27802962409</v>
+        <v>4983.278029624089</v>
       </c>
       <c r="G5" t="n">
         <v>5408.47931209644</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103851.3729083785</v>
+        <v>104611.5300210422</v>
       </c>
       <c r="C6" t="n">
-        <v>103851.3729083783</v>
+        <v>104611.5300210419</v>
       </c>
       <c r="D6" t="n">
-        <v>103851.3729083785</v>
+        <v>104611.5300210419</v>
       </c>
       <c r="E6" t="n">
-        <v>19881.17641406145</v>
+        <v>20612.47695368523</v>
       </c>
       <c r="F6" t="n">
-        <v>97968.71032059797</v>
+        <v>98700.01086022166</v>
       </c>
       <c r="G6" t="n">
-        <v>96858.02584126269</v>
+        <v>97602.45679188475</v>
       </c>
       <c r="H6" t="n">
-        <v>53880.20873091619</v>
+        <v>55075.11272745236</v>
       </c>
       <c r="I6" t="n">
-        <v>124993.3237516933</v>
+        <v>126188.2277482295</v>
       </c>
       <c r="J6" t="n">
-        <v>124993.3237516933</v>
+        <v>126188.2277482294</v>
       </c>
       <c r="K6" t="n">
-        <v>124993.3237516932</v>
+        <v>126188.2277482295</v>
       </c>
       <c r="L6" t="n">
-        <v>124993.3237516933</v>
+        <v>126188.2277482295</v>
       </c>
       <c r="M6" t="n">
-        <v>119592.9767198105</v>
+        <v>120695.051568754</v>
       </c>
       <c r="N6" t="n">
-        <v>119592.9767198105</v>
+        <v>120695.0515687539</v>
       </c>
       <c r="O6" t="n">
-        <v>118898.1540452592</v>
+        <v>119988.2852549834</v>
       </c>
       <c r="P6" t="n">
-        <v>90855.87973392814</v>
+        <v>91476.08965430132</v>
       </c>
     </row>
   </sheetData>
@@ -26759,10 +26759,10 @@
         <v>76.99542773726286</v>
       </c>
       <c r="J3" t="n">
-        <v>76.99542773726287</v>
+        <v>76.99542773726286</v>
       </c>
       <c r="K3" t="n">
-        <v>76.99542773726287</v>
+        <v>76.99542773726286</v>
       </c>
       <c r="L3" t="n">
         <v>76.99542773726287</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="F4" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="G4" t="n">
         <v>61.34833860894916</v>
       </c>
       <c r="H4" t="n">
-        <v>324.9166963018987</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="I4" t="n">
-        <v>324.9166963018987</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="J4" t="n">
         <v>324.9166963018986</v>
@@ -26820,7 +26820,7 @@
         <v>324.9166963018986</v>
       </c>
       <c r="M4" t="n">
-        <v>270.5617998388764</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="N4" t="n">
         <v>270.5617998388764</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32938,40 +32938,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H26" t="n">
-        <v>3.16996753493163</v>
+        <v>3.169967534931629</v>
       </c>
       <c r="I26" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J26" t="n">
-        <v>26.27091732629353</v>
+        <v>26.27091732629352</v>
       </c>
       <c r="K26" t="n">
-        <v>39.37329503933207</v>
+        <v>39.37329503933206</v>
       </c>
       <c r="L26" t="n">
-        <v>48.84605412119844</v>
+        <v>48.84605412119843</v>
       </c>
       <c r="M26" t="n">
-        <v>54.35064683686697</v>
+        <v>54.35064683686696</v>
       </c>
       <c r="N26" t="n">
-        <v>55.23009712453933</v>
+        <v>55.23009712453932</v>
       </c>
       <c r="O26" t="n">
-        <v>52.15221457353467</v>
+        <v>52.15221457353466</v>
       </c>
       <c r="P26" t="n">
-        <v>44.51070855438421</v>
+        <v>44.5107085543842</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.42568843040139</v>
+        <v>33.42568843040138</v>
       </c>
       <c r="R26" t="n">
-        <v>19.44347351799333</v>
+        <v>19.44347351799332</v>
       </c>
       <c r="S26" t="n">
-        <v>7.053400239448757</v>
+        <v>7.053400239448755</v>
       </c>
       <c r="T26" t="n">
         <v>1.354964763496957</v>
@@ -33017,10 +33017,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H27" t="n">
-        <v>1.599471055447669</v>
+        <v>1.599471055447668</v>
       </c>
       <c r="I27" t="n">
-        <v>5.702019884316166</v>
+        <v>5.702019884316165</v>
       </c>
       <c r="J27" t="n">
         <v>15.64677838573943</v>
@@ -33032,13 +33032,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M27" t="n">
-        <v>41.96250811680826</v>
+        <v>41.96250811680825</v>
       </c>
       <c r="N27" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O27" t="n">
-        <v>39.40349970248396</v>
+        <v>39.40349970248395</v>
       </c>
       <c r="P27" t="n">
         <v>31.62478238514105</v>
@@ -33053,10 +33053,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6675358310428732</v>
+        <v>0.6675358310428731</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01089557939678249</v>
+        <v>0.01089557939678248</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H28" t="n">
-        <v>1.234451284049888</v>
+        <v>1.234451284049887</v>
       </c>
       <c r="I28" t="n">
-        <v>4.175424179587961</v>
+        <v>4.17542417958796</v>
       </c>
       <c r="J28" t="n">
-        <v>9.816285926437594</v>
+        <v>9.816285926437592</v>
       </c>
       <c r="K28" t="n">
         <v>16.13117322101998</v>
@@ -33117,7 +33117,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O28" t="n">
-        <v>19.62499853211416</v>
+        <v>19.62499853211415</v>
       </c>
       <c r="P28" t="n">
         <v>16.79257656748434</v>
@@ -33126,16 +33126,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R28" t="n">
-        <v>6.242940747352493</v>
+        <v>6.242940747352491</v>
       </c>
       <c r="S28" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T28" t="n">
-        <v>0.593243459614976</v>
+        <v>0.5932434596149759</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007573320761042258</v>
+        <v>0.007573320761042257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,40 +33175,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H29" t="n">
-        <v>3.16996753493163</v>
+        <v>3.169967534931629</v>
       </c>
       <c r="I29" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J29" t="n">
-        <v>26.27091732629353</v>
+        <v>26.27091732629352</v>
       </c>
       <c r="K29" t="n">
-        <v>39.37329503933207</v>
+        <v>39.37329503933206</v>
       </c>
       <c r="L29" t="n">
-        <v>48.84605412119844</v>
+        <v>48.84605412119843</v>
       </c>
       <c r="M29" t="n">
-        <v>54.35064683686697</v>
+        <v>54.35064683686696</v>
       </c>
       <c r="N29" t="n">
-        <v>55.23009712453933</v>
+        <v>55.23009712453932</v>
       </c>
       <c r="O29" t="n">
-        <v>52.15221457353467</v>
+        <v>52.15221457353466</v>
       </c>
       <c r="P29" t="n">
-        <v>44.51070855438421</v>
+        <v>44.5107085543842</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.42568843040139</v>
+        <v>33.42568843040138</v>
       </c>
       <c r="R29" t="n">
-        <v>19.44347351799333</v>
+        <v>19.44347351799332</v>
       </c>
       <c r="S29" t="n">
-        <v>7.053400239448757</v>
+        <v>7.053400239448755</v>
       </c>
       <c r="T29" t="n">
         <v>1.354964763496957</v>
@@ -33254,10 +33254,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H30" t="n">
-        <v>1.599471055447669</v>
+        <v>1.599471055447668</v>
       </c>
       <c r="I30" t="n">
-        <v>5.702019884316166</v>
+        <v>5.702019884316165</v>
       </c>
       <c r="J30" t="n">
         <v>15.64677838573943</v>
@@ -33269,13 +33269,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M30" t="n">
-        <v>41.96250811680826</v>
+        <v>41.96250811680825</v>
       </c>
       <c r="N30" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O30" t="n">
-        <v>39.40349970248396</v>
+        <v>39.40349970248395</v>
       </c>
       <c r="P30" t="n">
         <v>31.62478238514105</v>
@@ -33290,10 +33290,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6675358310428732</v>
+        <v>0.6675358310428731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01089557939678249</v>
+        <v>0.01089557939678248</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H31" t="n">
-        <v>1.234451284049888</v>
+        <v>1.234451284049887</v>
       </c>
       <c r="I31" t="n">
-        <v>4.175424179587961</v>
+        <v>4.17542417958796</v>
       </c>
       <c r="J31" t="n">
-        <v>9.816285926437594</v>
+        <v>9.816285926437592</v>
       </c>
       <c r="K31" t="n">
         <v>16.13117322101998</v>
@@ -33354,7 +33354,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O31" t="n">
-        <v>19.62499853211416</v>
+        <v>19.62499853211415</v>
       </c>
       <c r="P31" t="n">
         <v>16.79257656748434</v>
@@ -33363,16 +33363,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R31" t="n">
-        <v>6.242940747352493</v>
+        <v>6.242940747352491</v>
       </c>
       <c r="S31" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T31" t="n">
-        <v>0.593243459614976</v>
+        <v>0.5932434596149759</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007573320761042258</v>
+        <v>0.007573320761042257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K11" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="L11" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="N11" t="n">
-        <v>14.40212184263535</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>14.40212184263538</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.25855197069139</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="N12" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.35489646302236</v>
+        <v>37.2585519706914</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>48.23237321466363</v>
       </c>
       <c r="M13" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="N13" t="n">
-        <v>54.35489646302242</v>
+        <v>54.35489646302234</v>
       </c>
       <c r="O13" t="n">
         <v>44.21012644615383</v>
@@ -35647,22 +35647,22 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K14" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="M14" t="n">
-        <v>14.40212184263535</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>14.40212184263538</v>
       </c>
       <c r="O14" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>23.43498921585658</v>
@@ -35726,25 +35726,25 @@
         <v>14.90018705948158</v>
       </c>
       <c r="K15" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="L15" t="n">
-        <v>54.35489646302236</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.2585519706914</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>37.25855197069141</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>48.23237321466363</v>
       </c>
       <c r="M16" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N16" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="O16" t="n">
         <v>44.21012644615383</v>
@@ -35890,19 +35890,19 @@
         <v>61.34833860894916</v>
       </c>
       <c r="M17" t="n">
-        <v>44.54798988539143</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>21.11300066953486</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.43498921585658</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>14.90018705948157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.96943079759087</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>61.34833860894916</v>
-      </c>
-      <c r="M18" t="n">
-        <v>61.34833860894916</v>
-      </c>
-      <c r="N18" t="n">
-        <v>43.96943079759085</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>61.34833860894916</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>135.0764209705973</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.43498921585674</v>
+        <v>23.43498921585658</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>153.3666344816423</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2450093927661</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>324.9166963018987</v>
+        <v>286.5726018937258</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="O21" t="n">
-        <v>217.7613238683042</v>
+        <v>290.669574534769</v>
       </c>
       <c r="P21" t="n">
         <v>216.113143610748</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.23584316742473</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>153.3666344816423</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>86.53320603515036</v>
       </c>
       <c r="M24" t="n">
-        <v>324.9166963018987</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="N24" t="n">
-        <v>286.572601893726</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="O24" t="n">
         <v>290.669574534769</v>
       </c>
       <c r="P24" t="n">
-        <v>216.113143610748</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.23584316742473</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K26" t="n">
-        <v>143.4288565655163</v>
+        <v>143.4288565655162</v>
       </c>
       <c r="L26" t="n">
         <v>230.7408537016616</v>
@@ -36613,7 +36613,7 @@
         <v>135.0764209705973</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.43498921585651</v>
+        <v>23.43498921585658</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.90018705948158</v>
+        <v>14.90018705948157</v>
       </c>
       <c r="K27" t="n">
         <v>153.3666344816423</v>
       </c>
       <c r="L27" t="n">
-        <v>268.2450093927661</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>286.5726018937258</v>
+      </c>
+      <c r="N27" t="n">
         <v>324.9166963018986</v>
-      </c>
-      <c r="N27" t="n">
-        <v>234.4407361117077</v>
       </c>
       <c r="O27" t="n">
         <v>290.669574534769</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>216.113143610748</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>48.23237321466363</v>
+        <v>48.23237321466362</v>
       </c>
       <c r="M28" t="n">
         <v>61.34833860894916</v>
@@ -36765,10 +36765,10 @@
         <v>65.37912377433264</v>
       </c>
       <c r="O28" t="n">
-        <v>44.21012644615383</v>
+        <v>44.21012644615382</v>
       </c>
       <c r="P28" t="n">
-        <v>14.07113583237783</v>
+        <v>14.07113583237782</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.32162797168096</v>
+        <v>14.32162797168101</v>
       </c>
       <c r="K29" t="n">
-        <v>143.4288565655163</v>
+        <v>143.4288565655162</v>
       </c>
       <c r="L29" t="n">
         <v>230.7408537016616</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.90018705948158</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>153.3666344816423</v>
@@ -36917,19 +36917,19 @@
         <v>268.2450093927661</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="N30" t="n">
         <v>324.9166963018986</v>
       </c>
       <c r="O30" t="n">
-        <v>290.669574534769</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>216.113143610748</v>
+        <v>215.0938014040597</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.32759250095974</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>48.23237321466363</v>
+        <v>48.23237321466362</v>
       </c>
       <c r="M31" t="n">
         <v>61.34833860894916</v>
@@ -37002,10 +37002,10 @@
         <v>65.37912377433264</v>
       </c>
       <c r="O31" t="n">
-        <v>44.21012644615383</v>
+        <v>44.21012644615382</v>
       </c>
       <c r="P31" t="n">
-        <v>14.07113583237783</v>
+        <v>14.07113583237782</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>14.90018705948158</v>
       </c>
       <c r="K33" t="n">
-        <v>62.89067429145133</v>
+        <v>153.3666344816423</v>
       </c>
       <c r="L33" t="n">
         <v>268.2450093927661</v>
@@ -37160,7 +37160,7 @@
         <v>324.9166963018986</v>
       </c>
       <c r="O33" t="n">
-        <v>290.669574534769</v>
+        <v>200.1936143445782</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,22 +37309,22 @@
         <v>143.4288565655163</v>
       </c>
       <c r="L35" t="n">
-        <v>18.47357254597237</v>
+        <v>230.7408537016616</v>
       </c>
       <c r="M35" t="n">
-        <v>270.5617998388764</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="N35" t="n">
         <v>263.1639579399326</v>
       </c>
       <c r="O35" t="n">
-        <v>202.8541844145933</v>
+        <v>14.0218924747603</v>
       </c>
       <c r="P35" t="n">
         <v>135.0764209705973</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.43498921585658</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>268.2450093927661</v>
+        <v>28.61667927616696</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5617998388764</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="O36" t="n">
-        <v>210.2594263937289</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="P36" t="n">
         <v>216.113143610748</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.23584316742475</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.32162797168101</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>66.23799638042419</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L38" t="n">
         <v>230.7408537016616</v>
@@ -37555,10 +37555,10 @@
         <v>263.1639579399326</v>
       </c>
       <c r="O38" t="n">
-        <v>202.8541844145933</v>
+        <v>4.908531230584956</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.0764209705973</v>
       </c>
       <c r="Q38" t="n">
         <v>23.43498921585658</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>268.2450093927661</v>
+        <v>207.9426359476187</v>
       </c>
       <c r="M39" t="n">
         <v>270.5617998388764</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>270.5617998388764</v>
       </c>
-      <c r="O39" t="n">
-        <v>155.8107701656005</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>216.113143610748</v>
       </c>
       <c r="Q39" t="n">
         <v>91.23584316742475</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14.32162797168101</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L41" t="n">
-        <v>155.5262939644168</v>
+        <v>230.7408537016616</v>
       </c>
       <c r="M41" t="n">
         <v>263.5683576929496</v>
@@ -37792,13 +37792,13 @@
         <v>263.1639579399326</v>
       </c>
       <c r="O41" t="n">
-        <v>202.8541844145933</v>
+        <v>128.400550326605</v>
       </c>
       <c r="P41" t="n">
-        <v>135.0764209705973</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.43498921585658</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>14.90018705948158</v>
       </c>
       <c r="K42" t="n">
-        <v>21.90580044926775</v>
+        <v>153.3666344816423</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>84.65230957837343</v>
       </c>
       <c r="M42" t="n">
         <v>263.5683576929496</v>
@@ -37874,7 +37874,7 @@
         <v>263.5683576929496</v>
       </c>
       <c r="P42" t="n">
-        <v>216.113143610748</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
